--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_7_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_7_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1606397527240921</v>
+        <v>0.5625779837107003</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1606397527240921</v>
+        <v>0.5625779837107003</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>6.619049305045034</v>
+        <v>3.621399201303953</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-2.3224266550792168, 15.560525265169286]</t>
+          <t>[-4.670857389086054, 11.91365579169396]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.1429471252175964</v>
+        <v>0.3837490154610053</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1429471252175964</v>
+        <v>0.3837490154610053</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.081789662497386</v>
+        <v>-0.07547369738353815</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-4.000105961327544, 1.8365266363327715]</t>
+          <t>[-3.182474239672543, 3.031526844905467]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.4591837457356109</v>
+        <v>0.9611951072048894</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4591837457356109</v>
+        <v>0.9611951072048894</v>
       </c>
       <c r="T2" t="n">
-        <v>13.7197727316335</v>
+        <v>12.8793651526923</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.92244761349496, 18.51709784977205]</t>
+          <t>[8.091550374959482, 17.667179930425124]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>7.080478414689395e-07</v>
+        <v>2.261393460267769e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>7.080478414689395e-07</v>
+        <v>2.261393460267769e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>4.01505505505509</v>
+        <v>0.2869669669669683</v>
       </c>
       <c r="Y2" t="n">
-        <v>-6.816256256256315</v>
+        <v>-11.52650650650665</v>
       </c>
       <c r="Z2" t="n">
-        <v>14.84636636636649</v>
+        <v>12.10044044044059</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06536236489999214</v>
+        <v>0.838028626991982</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06536236489999214</v>
+        <v>0.838028626991982</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>7.945357461249373</v>
+        <v>2.295264365523225</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-0.9531208977290708, 16.843835820227817]</t>
+          <t>[-8.323555063485012, 12.914083794531463]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.07882808375782213</v>
+        <v>0.6653896695999655</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07882808375782213</v>
+        <v>0.6653896695999655</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3144737390980774</v>
+        <v>-0.2390000417145393</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-1.9308687580621955, 1.3019212798660407]</t>
+          <t>[-3.364869008349429, 2.8868689249203503]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.6970194658918785</v>
+        <v>0.8783015866364527</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6970194658918785</v>
+        <v>0.8783015866364527</v>
       </c>
       <c r="T3" t="n">
-        <v>13.86782728322989</v>
+        <v>19.88575132555579</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[9.119149859077865, 18.616504707381914]</t>
+          <t>[14.389648323249908, 25.38185432786168]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.673885354300467e-07</v>
+        <v>3.827202554873566e-09</v>
       </c>
       <c r="W3" t="n">
-        <v>4.673885354300467e-07</v>
+        <v>3.827202554873566e-09</v>
       </c>
       <c r="X3" t="n">
-        <v>1.167167167167179</v>
+        <v>0.9087287287287431</v>
       </c>
       <c r="Y3" t="n">
-        <v>-4.832072072072114</v>
+        <v>-10.97648648648662</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.166406406406471</v>
+        <v>12.79394394394411</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2548438518774921</v>
+        <v>0.6382170248118783</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2548438518774921</v>
+        <v>0.6382170248118783</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>6.031425629310933</v>
+        <v>2.617786923976645</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-2.6228069792971844, 14.68565823791905]</t>
+          <t>[-4.91625865561776, 10.15183250357105]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.1672729111591864</v>
+        <v>0.4876404498302547</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1672729111591864</v>
+        <v>0.4876404498302547</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.58494764505431</v>
+        <v>0.5346053564667317</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-4.603895540395853, 1.4340002502872329]</t>
+          <t>[-2.603842559732081, 3.6730532726655443]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.2959706680996723</v>
+        <v>0.7331331021525118</v>
       </c>
       <c r="S4" t="n">
-        <v>0.2959706680996723</v>
+        <v>0.7331331021525118</v>
       </c>
       <c r="T4" t="n">
-        <v>13.55997197721334</v>
+        <v>11.5310693079185</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[8.512925403920194, 18.607018550506496]</t>
+          <t>[7.612586105523392, 15.449552510313602]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.313016830068904e-06</v>
+        <v>4.007155303131782e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>2.313016830068904e-06</v>
+        <v>4.007155303131782e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>5.882522522522574</v>
+        <v>21.85731731731759</v>
       </c>
       <c r="Y4" t="n">
-        <v>-5.32228228228233</v>
+        <v>9.924274274274396</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.08732732732748</v>
+        <v>33.79036036036078</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2149672315853342</v>
+        <v>0.2660751024715157</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2149672315853342</v>
+        <v>0.2660751024715157</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.716986790964599</v>
+        <v>5.459079572047035</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-2.6999334967878283, 14.133907078717026]</t>
+          <t>[-3.4422531885789134, 14.360412332672983]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.1780953723513807</v>
+        <v>0.2231571116908073</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1780953723513807</v>
+        <v>0.2231571116908073</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2704474156243464</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.7170531058073886, 3.2579479370560813]</t>
+          <t>[-2.188737224122619, 4.012684910891467]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.8561431744480803</v>
+        <v>0.556559002688165</v>
       </c>
       <c r="S5" t="n">
-        <v>0.8561431744480803</v>
+        <v>0.556559002688165</v>
       </c>
       <c r="T5" t="n">
-        <v>15.05334626211033</v>
+        <v>12.90026443030355</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[10.440910578363251, 19.665781945857407]</t>
+          <t>[8.197506656975634, 17.60302220363147]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.385610030688269e-08</v>
+        <v>1.574538660786828e-06</v>
       </c>
       <c r="W5" t="n">
-        <v>4.385610030688269e-08</v>
+        <v>1.574538660786828e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>22.31623623623643</v>
+        <v>20.42248248248274</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.22814814814825</v>
+        <v>8.632922922923029</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.40432432432462</v>
+        <v>32.21204204204244</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4604333906287439</v>
+        <v>0.01370146809135686</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4604333906287439</v>
+        <v>0.01370146809135686</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>4.350973361402489</v>
+        <v>9.781611153627692</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[-4.387829639269387, 13.089776362074364]</t>
+          <t>[0.9482341295362744, 18.61498817771911]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.3213173056652159</v>
+        <v>0.0307582643217974</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3213173056652159</v>
+        <v>0.0307582643217974</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09434212172942313</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.0441057944693894, 3.2327900379282357]</t>
+          <t>[0.10692107129334616, 1.7170266154755023]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.951990316940877</v>
+        <v>0.02729503185306648</v>
       </c>
       <c r="S6" t="n">
-        <v>0.951990316940877</v>
+        <v>0.02729503185306648</v>
       </c>
       <c r="T6" t="n">
-        <v>12.85677041228193</v>
+        <v>13.65824284503011</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[7.862836455728388, 17.850704368835462]</t>
+          <t>[9.129422094426664, 18.187063595633568]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>4.952225669541122e-06</v>
+        <v>2.422431413240389e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>4.952225669541122e-06</v>
+        <v>2.422431413240389e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>22.96984984985005</v>
+        <v>20.42248248248274</v>
       </c>
       <c r="Y6" t="n">
-        <v>11.32152152152162</v>
+        <v>17.36150150150172</v>
       </c>
       <c r="Z6" t="n">
-        <v>34.61817817817848</v>
+        <v>23.48346346346375</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0856473659514404</v>
+        <v>0.02822907990738266</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0856473659514404</v>
+        <v>0.02822907990738266</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>6.934897623706144</v>
+        <v>8.318656115906027</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-0.4027894617431542, 14.272584709155442]</t>
+          <t>[0.4593266246338601, 16.177985607178194]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.06337731271653513</v>
+        <v>0.03851651067566375</v>
       </c>
       <c r="O7" t="n">
-        <v>0.06337731271653513</v>
+        <v>0.03851651067566375</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08176317216550011</v>
+        <v>-0.3899474364816164</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.3962634015954638, 1.559789745926464]</t>
+          <t>[-1.7547634641672722, 0.9748685912040393]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.9117799934362756</v>
+        <v>0.5678481114467759</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9117799934362756</v>
+        <v>0.5678481114467759</v>
       </c>
       <c r="T7" t="n">
-        <v>12.88809889018224</v>
+        <v>14.11132616493419</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[8.495337246129669, 17.28086053423481]</t>
+          <t>[9.849031749998172, 18.373620579870206]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.257112522498829e-07</v>
+        <v>3.169412732262344e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>4.257112522498829e-07</v>
+        <v>3.169412732262344e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>23.01653653653674</v>
+        <v>1.48266266266268</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.53085085085101</v>
+        <v>-3.706656656656703</v>
       </c>
       <c r="Z7" t="n">
-        <v>28.50222222222247</v>
+        <v>6.671981981982062</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2727039332405434</v>
+        <v>0.7536602917830233</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2727039332405434</v>
+        <v>0.7536602917830233</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>4.480267953415431</v>
+        <v>2.472798373079471</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.852233883570266, 11.812769790401127]</t>
+          <t>[-6.589500883450056, 11.535097629608998]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.2248489193724645</v>
+        <v>0.5853238218075383</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2248489193724645</v>
+        <v>0.5853238218075383</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9434212172942322</v>
+        <v>0.3333421634439624</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-4.069290183929122, 2.1824477493406578]</t>
+          <t>[-2.798816277972888, 3.4655006048608126]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.5463240042450068</v>
+        <v>0.8312406655961797</v>
       </c>
       <c r="S8" t="n">
-        <v>0.5463240042450068</v>
+        <v>0.8312406655961797</v>
       </c>
       <c r="T8" t="n">
-        <v>10.50647538541299</v>
+        <v>13.4682776986306</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[6.621143878246466, 14.391806892579522]</t>
+          <t>[8.79806917400202, 18.138486223259175]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.054205082702154e-06</v>
+        <v>6.005439698864024e-07</v>
       </c>
       <c r="W8" t="n">
-        <v>2.054205082702154e-06</v>
+        <v>6.005439698864024e-07</v>
       </c>
       <c r="X8" t="n">
-        <v>3.501501501501533</v>
+        <v>22.62256256256284</v>
       </c>
       <c r="Y8" t="n">
-        <v>-8.100140140140214</v>
+        <v>10.71343343343357</v>
       </c>
       <c r="Z8" t="n">
-        <v>15.10314314314328</v>
+        <v>34.53169169169212</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.32000000000021</v>
+        <v>23.8900000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1177267799792834</v>
+        <v>0.02898509086022039</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1177267799792834</v>
+        <v>0.02898509086022039</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>6.625770023176615</v>
+        <v>7.717728406506769</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[-2.0075794793072053, 15.259119525660436]</t>
+          <t>[0.11747755183895414, 15.317979261174584]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.1291697505380971</v>
+        <v>0.04670525872076681</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1291697505380971</v>
+        <v>0.04670525872076681</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.5849211547224238</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.3019477701979265, 3.346000584003544]</t>
+          <t>[-0.767315923399309, 1.9371582328441566]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.7114041767765378</v>
+        <v>0.3882601293971442</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7114041767765378</v>
+        <v>0.3882601293971442</v>
       </c>
       <c r="T9" t="n">
-        <v>13.29762511985647</v>
+        <v>11.63612280621144</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[8.820999815648879, 17.774250424064054]</t>
+          <t>[7.665825733681805, 15.60641987874108]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>3.311333913735837e-07</v>
+        <v>4.350211653125768e-07</v>
       </c>
       <c r="W9" t="n">
-        <v>3.311333913735837e-07</v>
+        <v>4.350211653125768e-07</v>
       </c>
       <c r="X9" t="n">
-        <v>21.38250250250269</v>
+        <v>21.66600600600627</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.90134134134144</v>
+        <v>16.52451451451472</v>
       </c>
       <c r="Z9" t="n">
-        <v>31.86366366366395</v>
+        <v>26.80749749749783</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1140222618131442</v>
+        <v>0.02308259012369285</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1140222618131442</v>
+        <v>0.02308259012369285</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>6.772604494297373</v>
+        <v>8.249980834120638</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[-1.4467727378013384, 14.991981726396084]</t>
+          <t>[0.7421511493947524, 15.757810518846524]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.1039529789060207</v>
+        <v>0.03199762414154472</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1039529789060207</v>
+        <v>0.03199762414154472</v>
       </c>
       <c r="P10" t="n">
-        <v>1.855395060678656</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.09434212172942225, 3.6164479996278907]</t>
+          <t>[0.5471843060306547, 3.012658420559582]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.03937652642064826</v>
+        <v>0.005628918868783694</v>
       </c>
       <c r="S10" t="n">
-        <v>0.03937652642064826</v>
+        <v>0.005628918868783694</v>
       </c>
       <c r="T10" t="n">
-        <v>10.30839355185923</v>
+        <v>11.96417991643241</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[5.786602310685325, 14.830184793033126]</t>
+          <t>[7.82154398610667, 16.106815846758145]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.534966920826221e-05</v>
+        <v>5.835144274435322e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>3.534966920826221e-05</v>
+        <v>5.835144274435322e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>16.96224224224247</v>
+        <v>17.58822822822851</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.21589589589603</v>
+        <v>12.77357357357378</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.70858858858891</v>
+        <v>22.40288288288325</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03794720326573142</v>
+        <v>0.9584088348579898</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03794720326573142</v>
+        <v>0.9584088348579898</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>8.751498144453615</v>
+        <v>1.151796220445671</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[0.7417571775519427, 16.761239111355287]</t>
+          <t>[-9.89418356614918, 12.197776007040524]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0329363347357805</v>
+        <v>0.8346028906027689</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0329363347357805</v>
+        <v>0.8346028906027689</v>
       </c>
       <c r="P11" t="n">
-        <v>0.2201316173686543</v>
+        <v>0.9245527929483472</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.1446844103170015, 1.58494764505431]</t>
+          <t>[-2.213895123250465, 4.063000709147159]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.7467959873361529</v>
+        <v>0.5559289110235341</v>
       </c>
       <c r="S11" t="n">
-        <v>0.7467959873361529</v>
+        <v>0.5559289110235341</v>
       </c>
       <c r="T11" t="n">
-        <v>14.69193763466313</v>
+        <v>16.45580658318122</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.002940882683742, 19.38093438664251]</t>
+          <t>[10.831109389637618, 22.080503776724818]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.078038132096282e-07</v>
+        <v>4.507316762047964e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.078038132096282e-07</v>
+        <v>4.507316762047964e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>23.22670670670702</v>
+        <v>20.92900900900935</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.99828828828853</v>
+        <v>8.671291291291434</v>
       </c>
       <c r="Z11" t="n">
-        <v>28.45512512512551</v>
+        <v>33.18672672672727</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1956640261323723</v>
+        <v>0.7229815065828917</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1956640261323723</v>
+        <v>0.7229815065828917</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>6.448948290070384</v>
+        <v>2.913513775061539</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-2.4381513215190465, 15.336047901659814]</t>
+          <t>[-7.22277674190067, 13.049804292023747]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.1508158068623673</v>
+        <v>0.5655287456759615</v>
       </c>
       <c r="O12" t="n">
-        <v>0.1508158068623673</v>
+        <v>0.5655287456759615</v>
       </c>
       <c r="P12" t="n">
-        <v>0.09434212172942225</v>
+        <v>1.037763339023655</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.9623426223038907, 3.151026865762735]</t>
+          <t>[-2.1006845771751568, 4.1762112552224675]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.9507077752776039</v>
+        <v>0.5088198280178009</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9507077752776039</v>
+        <v>0.5088198280178009</v>
       </c>
       <c r="T12" t="n">
-        <v>16.43549271493115</v>
+        <v>14.7277878316267</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[11.453309198920063, 21.417676230942245]</t>
+          <t>[9.579871534508293, 19.8757041287451]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>3.440025575507377e-08</v>
+        <v>7.030014430586817e-07</v>
       </c>
       <c r="W12" t="n">
-        <v>3.440025575507377e-08</v>
+        <v>7.030014430586817e-07</v>
       </c>
       <c r="X12" t="n">
-        <v>23.70858858858891</v>
+        <v>20.48684684684718</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.99885885885902</v>
+        <v>8.229129129129264</v>
       </c>
       <c r="Z12" t="n">
-        <v>35.4183183183188</v>
+        <v>32.7445645645651</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09078742711209076</v>
+        <v>0.5145028863463258</v>
       </c>
       <c r="I13" t="n">
-        <v>0.09078742711209076</v>
+        <v>0.5145028863463258</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>8.205994709046911</v>
+        <v>4.211926890734723</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-1.3637122214663613, 17.775701639560182]</t>
+          <t>[-5.741814986208329, 14.165668767677776]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.09101117738658759</v>
+        <v>0.3985785973642049</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09101117738658759</v>
+        <v>0.3985785973642049</v>
       </c>
       <c r="P13" t="n">
-        <v>0.3333421634439615</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.4088423511593868, 2.07552667804731]</t>
+          <t>[-1.9748950815359256, 4.276842851733853]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.7017790128268033</v>
+        <v>0.4621758360817756</v>
       </c>
       <c r="S13" t="n">
-        <v>0.7017790128268033</v>
+        <v>0.4621758360817756</v>
       </c>
       <c r="T13" t="n">
-        <v>15.21070334968167</v>
+        <v>15.04986768786081</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[10.024225571370664, 20.397181127992674]</t>
+          <t>[9.862098406653601, 20.237636969068028]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>4.291746249496242e-07</v>
+        <v>5.337800577098761e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>4.291746249496242e-07</v>
+        <v>5.337800577098761e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>22.79301301301332</v>
+        <v>20.04468468468501</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.11894894894917</v>
+        <v>7.836096096096224</v>
       </c>
       <c r="Z13" t="n">
-        <v>29.46707707707748</v>
+        <v>32.25327327327379</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.259196492692468</v>
+        <v>0.5214264061582934</v>
       </c>
       <c r="I14" t="n">
-        <v>0.259196492692468</v>
+        <v>0.5214264061582934</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>6.820978860863201</v>
+        <v>3.492125442668122</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.281705259973531, 17.923662981699934]</t>
+          <t>[-4.709567347178028, 11.693818232514273]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.2223668107329684</v>
+        <v>0.3956759785438155</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2223668107329684</v>
+        <v>0.3956759785438155</v>
       </c>
       <c r="P14" t="n">
-        <v>0.7736053981812701</v>
+        <v>0.874236994692656</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.345974093671658, 3.893184890034198]</t>
+          <t>[-2.264210921506157, 4.012684910891469]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.6198850787283305</v>
+        <v>0.5775515849409909</v>
       </c>
       <c r="S14" t="n">
-        <v>0.6198850787283305</v>
+        <v>0.5775515849409909</v>
       </c>
       <c r="T14" t="n">
-        <v>13.24434930541658</v>
+        <v>13.5373164777316</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[7.430032388490986, 19.05866622234217]</t>
+          <t>[9.220936874728274, 17.853696080734935]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>3.577648866603944e-05</v>
+        <v>1.056052507664162e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>3.577648866603944e-05</v>
+        <v>1.056052507664162e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>21.10642642642671</v>
+        <v>21.12552552552586</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.155755755755878</v>
+        <v>8.867807807807944</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.05709709709755</v>
+        <v>33.38324324324378</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.07000000000032</v>
+        <v>24.5400000000004</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6321432528138685</v>
+        <v>0.07946438253723676</v>
       </c>
       <c r="I15" t="n">
-        <v>0.6321432528138685</v>
+        <v>0.07946438253723676</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>4.023885678267301</v>
+        <v>8.200747994668358</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-6.997045497044948, 15.044816853579551]</t>
+          <t>[-0.9216347579197866, 17.323130747256503]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.4659265168046531</v>
+        <v>0.07687949570044461</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4659265168046531</v>
+        <v>0.07687949570044461</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4717106086471157</v>
+        <v>0.2956053147521933</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-2.6478688832058124, 3.5912901005000437]</t>
+          <t>[-1.3333686537758478, 1.9245792832802344]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.7621114854920088</v>
+        <v>0.7164553896684454</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7621114854920088</v>
+        <v>0.7164553896684454</v>
       </c>
       <c r="T15" t="n">
-        <v>18.19833665580193</v>
+        <v>13.78609458406097</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[12.253458932483326, 24.14321437912053]</t>
+          <t>[8.797664270067724, 18.774524898054217]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.772475317629585e-07</v>
+        <v>1.368922365241332e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.772475317629585e-07</v>
+        <v>1.368922365241332e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>22.26294294294324</v>
+        <v>23.38546546546584</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.31227227227241</v>
+        <v>17.02324324324352</v>
       </c>
       <c r="Z15" t="n">
-        <v>34.21361361361408</v>
+        <v>29.74768768768817</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_7_sawtooth_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0.1/cosinor_per_day_fixed_period_7_sawtooth_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5625779837107003</v>
+        <v>0.125502758182683</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5625779837107003</v>
+        <v>0.125502758182683</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>3.621399201303953</v>
+        <v>7.061547668331714</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[-4.670857389086054, 11.91365579169396]</t>
+          <t>[-2.1838839538481487, 16.306979290511578]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.3837490154610053</v>
+        <v>0.1309663447550879</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3837490154610053</v>
+        <v>0.1309663447550879</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.07547369738353815</v>
+        <v>-0.792473822527155</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[-3.182474239672543, 3.031526844905467]</t>
+          <t>[-3.9309217387259676, 2.3459740936716575]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.9611951072048894</v>
+        <v>0.6135372398364463</v>
       </c>
       <c r="S2" t="n">
-        <v>0.9611951072048894</v>
+        <v>0.6135372398364463</v>
       </c>
       <c r="T2" t="n">
-        <v>12.8793651526923</v>
+        <v>10.6741378157837</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[8.091550374959482, 17.667179930425124]</t>
+          <t>[5.832306046882703, 15.51596958468469]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>2.261393460267769e-06</v>
+        <v>5.774750642051352e-05</v>
       </c>
       <c r="W2" t="n">
-        <v>2.261393460267769e-06</v>
+        <v>5.774750642051352e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>0.2869669669669683</v>
+        <v>2.889549549549567</v>
       </c>
       <c r="Y2" t="n">
-        <v>-11.52650650650665</v>
+        <v>-8.553983983984038</v>
       </c>
       <c r="Z2" t="n">
-        <v>12.10044044044059</v>
+        <v>14.33308308308317</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.838028626991982</v>
+        <v>0.1686806957955855</v>
       </c>
       <c r="I3" t="n">
-        <v>0.838028626991982</v>
+        <v>0.1686806957955855</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>2.295264365523225</v>
+        <v>7.393016873913559</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[-8.323555063485012, 12.914083794531463]</t>
+          <t>[-2.5390167624093616, 17.32505051023648]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.6653896695999655</v>
+        <v>0.1408000181922084</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6653896695999655</v>
+        <v>0.1408000181922084</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.2390000417145393</v>
+        <v>-0.9560001668581553</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[-3.364869008349429, 2.8868689249203503]</t>
+          <t>[-4.037842810019313, 2.125842476303003]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.8783015866364527</v>
+        <v>0.5352687403924254</v>
       </c>
       <c r="S3" t="n">
-        <v>0.8783015866364527</v>
+        <v>0.5352687403924254</v>
       </c>
       <c r="T3" t="n">
-        <v>19.88575132555579</v>
+        <v>14.32729637143593</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[14.389648323249908, 25.38185432786168]</t>
+          <t>[8.876893198576532, 19.77769954429533]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>3.827202554873566e-09</v>
+        <v>3.431430268596714e-06</v>
       </c>
       <c r="W3" t="n">
-        <v>3.827202554873566e-09</v>
+        <v>3.431430268596714e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>0.9087287287287431</v>
+        <v>3.485805805805825</v>
       </c>
       <c r="Y3" t="n">
-        <v>-10.97648648648662</v>
+        <v>-7.751331331331381</v>
       </c>
       <c r="Z3" t="n">
-        <v>12.79394394394411</v>
+        <v>14.72294294294303</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6382170248118783</v>
+        <v>0.09304884882439102</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6382170248118783</v>
+        <v>0.09304884882439102</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>2.617786923976645</v>
+        <v>6.932065435266137</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[-4.91625865561776, 10.15183250357105]</t>
+          <t>[-1.2313930185700528, 15.095523889102328]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.4876404498302547</v>
+        <v>0.0940991526923638</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4876404498302547</v>
+        <v>0.0940991526923638</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5346053564667317</v>
+        <v>-0.779894872963232</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-2.603842559732081, 3.6730532726655443]</t>
+          <t>[-3.811421717868698, 2.251631971942234]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.7331331021525118</v>
+        <v>0.6068912678078298</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7331331021525118</v>
+        <v>0.6068912678078298</v>
       </c>
       <c r="T4" t="n">
-        <v>11.5310693079185</v>
+        <v>13.21713483696206</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[7.612586105523392, 15.449552510313602]</t>
+          <t>[8.793160725229935, 17.641108948694182]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.007155303131782e-07</v>
+        <v>2.942411185813398e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>4.007155303131782e-07</v>
+        <v>2.942411185813398e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>21.85731731731759</v>
+        <v>2.843683683683704</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.924274274274396</v>
+        <v>-8.209989989990039</v>
       </c>
       <c r="Z4" t="n">
-        <v>33.79036036036078</v>
+        <v>13.89735735735745</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2660751024715157</v>
+        <v>0.4902074593868339</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2660751024715157</v>
+        <v>0.4902074593868339</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>5.459079572047035</v>
+        <v>3.952766570749072</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[-3.4422531885789134, 14.360412332672983]</t>
+          <t>[-4.744410340736484, 12.64994348223463]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.2231571116908073</v>
+        <v>0.3648680333644509</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2231571116908073</v>
+        <v>0.3648680333644509</v>
       </c>
       <c r="P5" t="n">
-        <v>0.9119738433844242</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-2.188737224122619, 4.012684910891467]</t>
+          <t>[-3.314553210093735, 2.9120268240481963]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.556559002688165</v>
+        <v>0.8969848131721838</v>
       </c>
       <c r="S5" t="n">
-        <v>0.556559002688165</v>
+        <v>0.8969848131721838</v>
       </c>
       <c r="T5" t="n">
-        <v>12.90026443030355</v>
+        <v>14.48896358495849</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[8.197506656975634, 17.60302220363147]</t>
+          <t>[9.714258879354254, 19.263668290562727]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.574538660786828e-06</v>
+        <v>2.129933425187858e-07</v>
       </c>
       <c r="W5" t="n">
-        <v>1.574538660786828e-06</v>
+        <v>2.129933425187858e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>20.42248248248274</v>
+        <v>0.7338538538538586</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.632922922923029</v>
+        <v>-10.61794794794801</v>
       </c>
       <c r="Z5" t="n">
-        <v>32.21204204204244</v>
+        <v>12.08565565565573</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01370146809135686</v>
+        <v>0.5150171655555088</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01370146809135686</v>
+        <v>0.5150171655555088</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>9.781611153627692</v>
+        <v>4.164318679784436</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[0.9482341295362744, 18.61498817771911]</t>
+          <t>[-5.177646406956546, 13.506283766525419]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0307582643217974</v>
+        <v>0.3740621730292657</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0307582643217974</v>
+        <v>0.3740621730292657</v>
       </c>
       <c r="P6" t="n">
-        <v>0.9119738433844242</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[0.10692107129334616, 1.7170266154755023]</t>
+          <t>[-1.8302371615508104, 4.434079721282892]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.02729503185306648</v>
+        <v>0.4069114356697137</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02729503185306648</v>
+        <v>0.4069114356697137</v>
       </c>
       <c r="T6" t="n">
-        <v>13.65824284503011</v>
+        <v>13.5698616774778</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[9.129422094426664, 18.187063595633568]</t>
+          <t>[8.563729243309949, 18.57599411164564]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.422431413240389e-07</v>
+        <v>1.96507761818232e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>2.422431413240389e-07</v>
+        <v>1.96507761818232e-06</v>
       </c>
       <c r="X6" t="n">
-        <v>20.42248248248274</v>
+        <v>18.162882882883</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.36150150150172</v>
+        <v>6.742282282282325</v>
       </c>
       <c r="Z6" t="n">
-        <v>23.48346346346375</v>
+        <v>29.58348348348367</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02822907990738266</v>
+        <v>0.1598962834720743</v>
       </c>
       <c r="I7" t="n">
-        <v>0.02822907990738266</v>
+        <v>0.1598962834720743</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>8.318656115906027</v>
+        <v>5.973779651285448</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.4593266246338601, 16.177985607178194]</t>
+          <t>[-2.0992789645957997, 14.046838267166695]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.03851651067566375</v>
+        <v>0.1431046967936913</v>
       </c>
       <c r="O7" t="n">
-        <v>0.03851651067566375</v>
+        <v>0.1431046967936913</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3899474364816164</v>
+        <v>1.150973885098963</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.7547634641672722, 0.9748685912040393]</t>
+          <t>[-1.6415529180919637, 3.9435006882898906]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.5678481114467759</v>
+        <v>0.4108437420927382</v>
       </c>
       <c r="S7" t="n">
-        <v>0.5678481114467759</v>
+        <v>0.4108437420927382</v>
       </c>
       <c r="T7" t="n">
-        <v>14.11132616493419</v>
+        <v>13.68163613247679</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[9.849031749998172, 18.373620579870206]</t>
+          <t>[9.402601562765485, 17.960670702188096]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.169412732262344e-08</v>
+        <v>6.928113793769342e-08</v>
       </c>
       <c r="W7" t="n">
-        <v>3.169412732262344e-08</v>
+        <v>6.928113793769342e-08</v>
       </c>
       <c r="X7" t="n">
-        <v>1.48266266266268</v>
+        <v>18.71327327327339</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3.706656656656703</v>
+        <v>8.531051051051101</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.671981981982062</v>
+        <v>28.89549549549567</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7536602917830233</v>
+        <v>0.06454008733983174</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7536602917830233</v>
+        <v>0.06454008733983174</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>2.472798373079471</v>
+        <v>8.696657182221792</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-6.589500883450056, 11.535097629608998]</t>
+          <t>[-1.1001242911481448, 18.493438655591728]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.5853238218075383</v>
+        <v>0.08052198417900991</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5853238218075383</v>
+        <v>0.08052198417900991</v>
       </c>
       <c r="P8" t="n">
-        <v>0.3333421634439624</v>
+        <v>0.5471843060306547</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-2.798816277972888, 3.4655006048608126]</t>
+          <t>[-1.4340002502872329, 2.5283688623485423]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.8312406655961797</v>
+        <v>0.5807778658693188</v>
       </c>
       <c r="S8" t="n">
-        <v>0.8312406655961797</v>
+        <v>0.5807778658693188</v>
       </c>
       <c r="T8" t="n">
-        <v>13.4682776986306</v>
+        <v>16.38978389459633</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[8.79806917400202, 18.138486223259175]</t>
+          <t>[11.228409874728314, 21.551157914464355]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.005439698864024e-07</v>
+        <v>8.057960165785971e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>6.005439698864024e-07</v>
+        <v>8.057960165785971e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>22.62256256256284</v>
+        <v>20.91483483483496</v>
       </c>
       <c r="Y8" t="n">
-        <v>10.71343343343357</v>
+        <v>13.69096096096104</v>
       </c>
       <c r="Z8" t="n">
-        <v>34.53169169169212</v>
+        <v>28.13870870870888</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.8900000000003</v>
+        <v>22.91000000000014</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.02898509086022039</v>
+        <v>0.09600436180353611</v>
       </c>
       <c r="I9" t="n">
-        <v>0.02898509086022039</v>
+        <v>0.09600436180353611</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>7.717728406506769</v>
+        <v>7.405028324368985</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[0.11747755183895414, 15.317979261174584]</t>
+          <t>[-1.8708521822005793, 16.68090883093855]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.04670525872076681</v>
+        <v>0.1148563584040929</v>
       </c>
       <c r="O9" t="n">
-        <v>0.04670525872076681</v>
+        <v>0.1148563584040929</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5849211547224238</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.767315923399309, 1.9371582328441566]</t>
+          <t>[-1.7736318885131563, 3.018947895341542]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.3882601293971442</v>
+        <v>0.6032987319325809</v>
       </c>
       <c r="S9" t="n">
-        <v>0.3882601293971442</v>
+        <v>0.6032987319325809</v>
       </c>
       <c r="T9" t="n">
-        <v>11.63612280621144</v>
+        <v>13.22214670735719</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[7.665825733681805, 15.60641987874108]</t>
+          <t>[8.460204992842531, 17.98408842187185]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.350211653125768e-07</v>
+        <v>1.252380138483389e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>4.350211653125768e-07</v>
+        <v>1.252380138483389e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>21.66600600600627</v>
+        <v>20.63963963963977</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.52451451451472</v>
+        <v>11.90219219219227</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.80749749749783</v>
+        <v>29.37708708708727</v>
       </c>
     </row>
     <row r="10">
@@ -1253,7 +1253,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02308259012369285</v>
+        <v>0.2538647684218946</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02308259012369285</v>
+        <v>0.2538647684218946</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>8.249980834120638</v>
+        <v>5.284284992748811</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[0.7421511493947524, 15.757810518846524]</t>
+          <t>[-3.5028587344099, 14.071428719907521]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.03199762414154472</v>
+        <v>0.2321365873252224</v>
       </c>
       <c r="O10" t="n">
-        <v>0.03199762414154472</v>
+        <v>0.2321365873252224</v>
       </c>
       <c r="P10" t="n">
-        <v>1.779921363295118</v>
+        <v>0.7861843477451931</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 3.012658420559582]</t>
+          <t>[-2.352263568453619, 3.924632263944005]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.005628918868783694</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="S10" t="n">
-        <v>0.005628918868783694</v>
+        <v>0.6163472828470189</v>
       </c>
       <c r="T10" t="n">
-        <v>11.96417991643241</v>
+        <v>13.31377681608972</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[7.82154398610667, 16.106815846758145]</t>
+          <t>[8.84346059483235, 17.78409303734708]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.835144274435322e-07</v>
+        <v>3.138115127754304e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>5.835144274435322e-07</v>
+        <v>3.138115127754304e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>17.58822822822851</v>
+        <v>20.65579579579602</v>
       </c>
       <c r="Y10" t="n">
-        <v>12.77357357357378</v>
+        <v>8.862612612612709</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.40288288288325</v>
+        <v>32.44897897897933</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9584088348579898</v>
+        <v>0.3291372571194977</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9584088348579898</v>
+        <v>0.3291372571194977</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.151796220445671</v>
+        <v>4.747438856219468</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[-9.89418356614918, 12.197776007040524]</t>
+          <t>[-3.741008882447664, 13.2358865948866]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.8346028906027689</v>
+        <v>0.2659454728483426</v>
       </c>
       <c r="O11" t="n">
-        <v>0.8346028906027689</v>
+        <v>0.2659454728483426</v>
       </c>
       <c r="P11" t="n">
-        <v>0.9245527929483472</v>
+        <v>1.000026490331885</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.213895123250465, 4.063000709147159]</t>
+          <t>[-2.1069740519571196, 4.10702703262089]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.5559289110235341</v>
+        <v>0.520108539496873</v>
       </c>
       <c r="S11" t="n">
-        <v>0.5559289110235341</v>
+        <v>0.520108539496873</v>
       </c>
       <c r="T11" t="n">
-        <v>16.45580658318122</v>
+        <v>13.16604388163595</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[10.831109389637618, 22.080503776724818]</t>
+          <t>[8.706816377941127, 17.625271385330773]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.507316762047964e-07</v>
+        <v>3.745880297056914e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>4.507316762047964e-07</v>
+        <v>3.745880297056914e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>20.92900900900935</v>
+        <v>19.85225225225247</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.671291291291434</v>
+        <v>8.177237237237325</v>
       </c>
       <c r="Z11" t="n">
-        <v>33.18672672672727</v>
+        <v>31.52726726726761</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7229815065828917</v>
+        <v>0.1846944925357323</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7229815065828917</v>
+        <v>0.1846944925357323</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>2.913513775061539</v>
+        <v>7.045105543783317</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[-7.22277674190067, 13.049804292023747]</t>
+          <t>[-2.7645443072200786, 16.854755394786714]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>0.5655287456759615</v>
+        <v>0.1549694796259091</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5655287456759615</v>
+        <v>0.1549694796259091</v>
       </c>
       <c r="P12" t="n">
-        <v>1.037763339023655</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[-2.1006845771751568, 4.1762112552224675]</t>
+          <t>[-2.6415794084238504, 3.5598427265902375]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>0.5088198280178009</v>
+        <v>0.7668970390053929</v>
       </c>
       <c r="S12" t="n">
-        <v>0.5088198280178009</v>
+        <v>0.7668970390053929</v>
       </c>
       <c r="T12" t="n">
-        <v>14.7277878316267</v>
+        <v>14.25054193437962</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[9.579871534508293, 19.8757041287451]</t>
+          <t>[8.868729007070822, 19.632354861688416]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>7.030014430586817e-07</v>
+        <v>3.011384693385466e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>7.030014430586817e-07</v>
+        <v>3.011384693385466e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>20.48684684684718</v>
+        <v>21.88474474474497</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.229129129129264</v>
+        <v>10.23336336336346</v>
       </c>
       <c r="Z12" t="n">
-        <v>32.7445645645651</v>
+        <v>33.53612612612648</v>
       </c>
     </row>
     <row r="13">
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5145028863463258</v>
+        <v>0.0006787692403307233</v>
       </c>
       <c r="I13" t="n">
-        <v>0.5145028863463258</v>
+        <v>0.0006787692403307233</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>4.211926890734723</v>
+        <v>10.91764798859509</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[-5.741814986208329, 14.165668767677776]</t>
+          <t>[4.309768435026182, 17.525527542164]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.3985785973642049</v>
+        <v>0.001751846683178071</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3985785973642049</v>
+        <v>0.001751846683178071</v>
       </c>
       <c r="P13" t="n">
-        <v>1.150973885098963</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[-1.9748950815359256, 4.276842851733853]</t>
+          <t>[0.5849211547224229, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>0.4621758360817756</v>
+        <v>0.0006092067849425842</v>
       </c>
       <c r="S13" t="n">
-        <v>0.4621758360817756</v>
+        <v>0.0006092067849425842</v>
       </c>
       <c r="T13" t="n">
-        <v>15.04986768786081</v>
+        <v>11.1774789637336</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[9.862098406653601, 20.237636969068028]</t>
+          <t>[7.457582785442247, 14.897375142024961]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>5.337800577098761e-07</v>
+        <v>2.614330636419027e-07</v>
       </c>
       <c r="W13" t="n">
-        <v>5.337800577098761e-07</v>
+        <v>2.614330636419027e-07</v>
       </c>
       <c r="X13" t="n">
-        <v>20.04468468468501</v>
+        <v>18.76510510510531</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.836096096096224</v>
+        <v>16.11813813813831</v>
       </c>
       <c r="Z13" t="n">
-        <v>32.25327327327379</v>
+        <v>21.4120720720723</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5214264061582934</v>
+        <v>0.1946226490248147</v>
       </c>
       <c r="I14" t="n">
-        <v>0.5214264061582934</v>
+        <v>0.1946226490248147</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>3.492125442668122</v>
+        <v>6.292744884994739</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[-4.709567347178028, 11.693818232514273]</t>
+          <t>[-2.8300132536456326, 15.415503023635111]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.3956759785438155</v>
+        <v>0.1715785656509727</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3956759785438155</v>
+        <v>0.1715785656509727</v>
       </c>
       <c r="P14" t="n">
-        <v>0.874236994692656</v>
+        <v>1.113237036407194</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[-2.264210921506157, 4.012684910891469]</t>
+          <t>[-1.9434477076261185, 4.1699217804405055]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>0.5775515849409909</v>
+        <v>0.46703888012141</v>
       </c>
       <c r="S14" t="n">
-        <v>0.5775515849409909</v>
+        <v>0.46703888012141</v>
       </c>
       <c r="T14" t="n">
-        <v>13.5373164777316</v>
+        <v>14.14097435772407</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[9.220936874728274, 17.853696080734935]</t>
+          <t>[9.302379102009162, 18.97956961343897]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.056052507664162e-07</v>
+        <v>4.604317633827293e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>1.056052507664162e-07</v>
+        <v>4.604317633827293e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>21.12552552552586</v>
+        <v>19.42684684684706</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.867807807807944</v>
+        <v>7.940900900900989</v>
       </c>
       <c r="Z14" t="n">
-        <v>33.38324324324378</v>
+        <v>30.91279279279312</v>
       </c>
     </row>
     <row r="15">
@@ -1699,69 +1699,69 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.5400000000004</v>
+        <v>23.61000000000025</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07946438253723676</v>
+        <v>0.5553115793017342</v>
       </c>
       <c r="I15" t="n">
-        <v>0.07946438253723676</v>
+        <v>0.5553115793017342</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>8.200747994668358</v>
+        <v>4.065629966147924</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>[-0.9216347579197866, 17.323130747256503]</t>
+          <t>[-5.656403307903535, 13.787663240199382]</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.07687949570044461</v>
+        <v>0.4040899028918168</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07687949570044461</v>
+        <v>0.4040899028918168</v>
       </c>
       <c r="P15" t="n">
-        <v>0.2956053147521933</v>
+        <v>0.1823947686768852</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[-1.3333686537758478, 1.9245792832802344]</t>
+          <t>[-2.9246057736121194, 3.2893953109658898]</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>0.7164553896684454</v>
+        <v>0.9064062145219705</v>
       </c>
       <c r="S15" t="n">
-        <v>0.7164553896684454</v>
+        <v>0.9064062145219705</v>
       </c>
       <c r="T15" t="n">
-        <v>13.78609458406097</v>
+        <v>14.14316234719497</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>[8.797664270067724, 18.774524898054217]</t>
+          <t>[8.803079522013588, 19.483245172376357]</t>
         </is>
       </c>
       <c r="V15" t="n">
-        <v>1.368922365241332e-06</v>
+        <v>2.999468175834963e-06</v>
       </c>
       <c r="W15" t="n">
-        <v>1.368922365241332e-06</v>
+        <v>2.999468175834963e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>23.38546546546584</v>
+        <v>22.92462462462487</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.02324324324352</v>
+        <v>11.24960960960973</v>
       </c>
       <c r="Z15" t="n">
-        <v>29.74768768768817</v>
+        <v>34.59963963964</v>
       </c>
     </row>
   </sheetData>
